--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2012 (F12).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2012 (F12).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,441 +444,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acidic Slime</t>
+          <t>('Acidic Slime', ['{3}{G}{G}', 'Creature — Ooze', 'Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)', 'When Acidic Slime enters the battlefield, destroy target artifact, enchantment, or land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{G}{G}</t>
+          <t>('Ancient Grudge', ['{1}{R}', 'Instant', 'Destroy target artifact.', 'Flashback {G} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Ooze</t>
+          <t>("Avacyn's Pilgrim", ['{G}', 'Creature — Human Monk', '{T}: Add {W}.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)</t>
+          <t>('Despise', ['{B}', 'Sorcery', 'Target opponent reveals their hand. You choose a creature or planeswalker card from it. That player discards that card.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>When Acidic Slime enters the battlefield, destroy target artifact, enchantment, or land.</t>
+          <t>('Dismember', ['{1}{B/P}{B/P}', 'Instant', '({B/P} can be paid with either {B} or 2 life.)', 'Target creature gets -5/-5 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Evolving Wilds', ['Land', '{T}, Sacrifice Evolving Wilds: Search your library for a basic land card, put it onto the battlefield tapped, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ancient Grudge</t>
+          <t>('Forbidden Alchemy', ['{2}{U}', 'Instant', 'Look at the top four cards of your library. Put one of them into your hand and the rest into your graveyard.', 'Flashback {6}{B} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{1}{R}</t>
+          <t>('Gitaxian Probe', ['{U/P}', 'Sorcery', '({U/P} can be paid with either {U} or 2 life.)', 'Look at target player’s hand.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Glistener Elf', ['{G}', 'Creature — Elf Warrior', 'Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Destroy target artifact.</t>
+          <t>('Human', ['Token Creature — Human', '1/1', 'Wolf', 'Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Flashback {G} (You may cast this card from your graveyard for its flashback cost. Then exile it.)</t>
+          <t>('Lingering Souls', ['{2}{W}', 'Sorcery', 'Create two 1/1 white Spirit creature tokens with flying.', 'Flashback {1}{B} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Avacyn's Pilgrim</t>
+          <t>('Pillar of Flame', ['{R}', 'Sorcery', 'Pillar of Flame deals 2 damage to any target. If a creature dealt damage this way would die this turn, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Creature — Human Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{T}: Add {W}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Despise</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Target opponent reveals their hand. You choose a creature or planeswalker card from it. That player discards that card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dismember</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{1}{B/P}{B/P}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>({B/P} can be paid with either {B} or 2 life.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Target creature gets -5/-5 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Evolving Wilds</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice Evolving Wilds: Search your library for a basic land card, put it onto the battlefield tapped, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Forbidden Alchemy</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Look at the top four cards of your library. Put one of them into your hand and the rest into your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Flashback {6}{B} (You may cast this card from your graveyard for its flashback cost. Then exile it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Gitaxian Probe</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{U/P}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>({U/P} can be paid with either {U} or 2 life.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Look at target player’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Glistener Elf</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Token Creature — Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Lingering Souls</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Create two 1/1 white Spirit creature tokens with flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Flashback {1}{B} (You may cast this card from your graveyard for its flashback cost. Then exile it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pillar of Flame</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Pillar of Flame deals 2 damage to any target. If a creature dealt damage this way would die this turn, exile it instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Tectonic Edge</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>{1}, {T}, Sacrifice Tectonic Edge: Destroy target nonbasic land. Activate this ability only if an opponent controls four or more lands.</t>
+          <t>('Tectonic Edge', ['Land', '{T}: Add {C}.', '{1}, {T}, Sacrifice Tectonic Edge: Destroy target nonbasic land. Activate this ability only if an opponent controls four or more lands.'])</t>
         </is>
       </c>
     </row>
